--- a/similarities/split_global/harmonic_similarity_timestamps_159.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_159.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D/5', 'A/3', 'D']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:21.740249', '0:00:26.767369')]</t>
+          <t>('0:00:43.780000', '0:00:46.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000')]</t>
+          <t>('0:02:49.840000', '0:02:52.420000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=43.78</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=169.84</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:38.180000', '0:00:51.980000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_140</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:7/C', 'G:(3,5,b7,b9)/C', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C', 'G/3', 'C', 'G/3']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.340000', '0:00:11.680000')]</t>
+          <t>('0:00:05.500000', '0:00:22.220000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:10.148000', '0:02:12.444000')]</t>
+          <t>('0:02:31.760000', '0:02:34.920000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-140#t=5.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.148']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=151.76</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:18.139715')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.014823', '0:00:12.241493')]</t>
+          <t>('0:00:09.640000', '0:00:14.300000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:21.740249', '0:00:42.394399')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=21.740249</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'D:dim7', 'Ab:maj7']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C#:dim7', 'G:maj7']]</t>
+          <t>['C', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:36.020000', '0:01:38.870000')]</t>
+          <t>('0:00:38.438956', '0:00:41.945170')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:43.200000', '0:00:49')]</t>
+          <t>('0:00:38.250000', '0:00:42.100000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=96.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=43.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=38.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min'], ['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>['A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:07.720000'), ('0:00:00.220000', '0:00:05.780000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:08.540000', '0:00:19.540000'), ('0:00:07.220000', '0:00:16.840000')]</t>
+          <t>('0:00:13.527000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=7.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=13.527</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'A']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:36.950000', '0:00:43.560000')]</t>
+          <t>('0:00:04.840000', '0:00:10.640000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=36.95']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['A', 'D:min', 'G:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['E', 'A:min', 'D:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000'), ('0:00:25.620000', '0:00:33.760000')]</t>
+          <t>('0:00:25.443832', '0:00:32.862607')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000'), ('0:00:26.160000', '0:00:34.300000')]</t>
+          <t>('0:00:45.884000', '0:00:56.883000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=25.443832</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=45.884</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>['Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:59.100000', '0:01:09')]</t>
+          <t>('0:00:00', '0:00:02.430000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:06.180000', '0:00:24.580000')]</t>
+          <t>('0:01:21.850000', '0:01:27.540000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=0.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=6.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=81.85</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#'], ['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000'), ('0:00:25.260000', '0:00:34.280000')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:00:23.420000', '0:00:31.440000')]</t>
+          <t>('0:01:58.584331', '0:02:07.280204')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+          <t>('0:00:05.571955', '0:00:28.079297')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000')]</t>
+          <t>('0:00:00.780000', '0:00:24.860000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
+          <t>['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:33.260000', '0:01:42.460000')]</t>
+          <t>('0:02:11.460000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
+          <t>('0:00:37.738798', '0:00:47.769818')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=93.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=131.46</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=97.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
